--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H2">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I2">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J2">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N2">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q2">
-        <v>2.169836829401245</v>
+        <v>2.462280879077999</v>
       </c>
       <c r="R2">
-        <v>2.169836829401245</v>
+        <v>22.160527911702</v>
       </c>
       <c r="S2">
-        <v>0.1063435885515472</v>
+        <v>0.09697415306352278</v>
       </c>
       <c r="T2">
-        <v>0.1063435885515472</v>
+        <v>0.09697415306352281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H3">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I3">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J3">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N3">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q3">
-        <v>0.3476304155154472</v>
+        <v>0.3933466831079999</v>
       </c>
       <c r="R3">
-        <v>0.3476304155154472</v>
+        <v>3.540120147971999</v>
       </c>
       <c r="S3">
-        <v>0.01703734832714555</v>
+        <v>0.01549151511464742</v>
       </c>
       <c r="T3">
-        <v>0.01703734832714555</v>
+        <v>0.01549151511464743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H4">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I4">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J4">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N4">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q4">
-        <v>0.4302720525635336</v>
+        <v>0.59925760178</v>
       </c>
       <c r="R4">
-        <v>0.4302720525635336</v>
+        <v>5.39331841602</v>
       </c>
       <c r="S4">
-        <v>0.02108761059958247</v>
+        <v>0.02360108421962547</v>
       </c>
       <c r="T4">
-        <v>0.02108761059958247</v>
+        <v>0.02360108421962547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H5">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I5">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J5">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N5">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q5">
-        <v>1.814554198645726</v>
+        <v>1.950360155244</v>
       </c>
       <c r="R5">
-        <v>1.814554198645726</v>
+        <v>17.553241397196</v>
       </c>
       <c r="S5">
-        <v>0.08893120555913485</v>
+        <v>0.07681273319819189</v>
       </c>
       <c r="T5">
-        <v>0.08893120555913485</v>
+        <v>0.07681273319819189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H6">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I6">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J6">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N6">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q6">
-        <v>0.2907104449068537</v>
+        <v>0.311567906184</v>
       </c>
       <c r="R6">
-        <v>0.2907104449068537</v>
+        <v>2.804111155656</v>
       </c>
       <c r="S6">
-        <v>0.01424770357010788</v>
+        <v>0.0122707502952637</v>
       </c>
       <c r="T6">
-        <v>0.01424770357010788</v>
+        <v>0.0122707502952637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H7">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I7">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J7">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N7">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O7">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P7">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q7">
-        <v>0.3598205860274382</v>
+        <v>0.4746688971066668</v>
       </c>
       <c r="R7">
-        <v>0.3598205860274382</v>
+        <v>4.27202007396</v>
       </c>
       <c r="S7">
-        <v>0.01763478794091508</v>
+        <v>0.01869429871857333</v>
       </c>
       <c r="T7">
-        <v>0.01763478794091508</v>
+        <v>0.01869429871857333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -903,49 +909,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H8">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I8">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J8">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N8">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O8">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P8">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q8">
-        <v>11.03505000099458</v>
+        <v>0.09468398779199999</v>
       </c>
       <c r="R8">
-        <v>11.03505000099458</v>
+        <v>0.852155890128</v>
       </c>
       <c r="S8">
-        <v>0.5408272184574089</v>
+        <v>0.003729021982351701</v>
       </c>
       <c r="T8">
-        <v>0.5408272184574089</v>
+        <v>0.003729021982351702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -965,49 +971,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H9">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I9">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J9">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N9">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O9">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P9">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q9">
-        <v>1.767929719460997</v>
+        <v>0.015125663712</v>
       </c>
       <c r="R9">
-        <v>1.767929719460997</v>
+        <v>0.136130973408</v>
       </c>
       <c r="S9">
-        <v>0.08664614229370066</v>
+        <v>0.000595707191839179</v>
       </c>
       <c r="T9">
-        <v>0.08664614229370066</v>
+        <v>0.0005957071918391791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,433 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.068176</v>
+      </c>
+      <c r="I10">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J10">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.01401</v>
+      </c>
+      <c r="N10">
+        <v>3.04203</v>
+      </c>
+      <c r="O10">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P10">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q10">
+        <v>0.02304371525333334</v>
+      </c>
+      <c r="R10">
+        <v>0.20739343728</v>
+      </c>
+      <c r="S10">
+        <v>0.0009075507141028297</v>
+      </c>
+      <c r="T10">
+        <v>0.0009075507141028297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.31118</v>
+      </c>
+      <c r="I11">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J11">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.166450999999999</v>
+      </c>
+      <c r="N11">
+        <v>12.499353</v>
+      </c>
+      <c r="O11">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="P11">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="Q11">
+        <v>0.43217207406</v>
+      </c>
+      <c r="R11">
+        <v>3.88954866654</v>
+      </c>
+      <c r="S11">
+        <v>0.01702060931219494</v>
+      </c>
+      <c r="T11">
+        <v>0.01702060931219495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.31118</v>
+      </c>
+      <c r="I12">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J12">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N12">
+        <v>1.996758</v>
+      </c>
+      <c r="O12">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="P12">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="Q12">
+        <v>0.06903901715999999</v>
+      </c>
+      <c r="R12">
+        <v>0.62135115444</v>
+      </c>
+      <c r="S12">
+        <v>0.002719023761389869</v>
+      </c>
+      <c r="T12">
+        <v>0.00271902376138987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.74394872368521</v>
-      </c>
-      <c r="H10">
-        <v>2.74394872368521</v>
-      </c>
-      <c r="I10">
-        <v>0.7347177554515669</v>
-      </c>
-      <c r="J10">
-        <v>0.7347177554515669</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.797470039517346</v>
-      </c>
-      <c r="N10">
-        <v>0.797470039517346</v>
-      </c>
-      <c r="O10">
-        <v>0.1459667932409548</v>
-      </c>
-      <c r="P10">
-        <v>0.1459667932409548</v>
-      </c>
-      <c r="Q10">
-        <v>2.188216897110816</v>
-      </c>
-      <c r="R10">
-        <v>2.188216897110816</v>
-      </c>
-      <c r="S10">
-        <v>0.1072443947004573</v>
-      </c>
-      <c r="T10">
-        <v>0.1072443947004573</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.31118</v>
+      </c>
+      <c r="I13">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J13">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.01401</v>
+      </c>
+      <c r="N13">
+        <v>3.04203</v>
+      </c>
+      <c r="O13">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P13">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q13">
+        <v>0.1051798772666667</v>
+      </c>
+      <c r="R13">
+        <v>0.9466188954</v>
+      </c>
+      <c r="S13">
+        <v>0.004142390741822908</v>
+      </c>
+      <c r="T13">
+        <v>0.004142390741822908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.157754</v>
+      </c>
+      <c r="H14">
+        <v>9.473262</v>
+      </c>
+      <c r="I14">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J14">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.166450999999999</v>
+      </c>
+      <c r="N14">
+        <v>12.499353</v>
+      </c>
+      <c r="O14">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="P14">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="Q14">
+        <v>13.156627311054</v>
+      </c>
+      <c r="R14">
+        <v>118.409645799486</v>
+      </c>
+      <c r="S14">
+        <v>0.518158915785277</v>
+      </c>
+      <c r="T14">
+        <v>0.5181589157852771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.157754</v>
+      </c>
+      <c r="H15">
+        <v>9.473262</v>
+      </c>
+      <c r="I15">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J15">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.996758</v>
+      </c>
+      <c r="O15">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="P15">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="Q15">
+        <v>2.101756853844</v>
+      </c>
+      <c r="R15">
+        <v>18.915811684596</v>
+      </c>
+      <c r="S15">
+        <v>0.08277532127987568</v>
+      </c>
+      <c r="T15">
+        <v>0.08277532127987569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.157754</v>
+      </c>
+      <c r="H16">
+        <v>9.473262</v>
+      </c>
+      <c r="I16">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J16">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.01401</v>
+      </c>
+      <c r="N16">
+        <v>3.04203</v>
+      </c>
+      <c r="O16">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P16">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q16">
+        <v>3.20199413354</v>
+      </c>
+      <c r="R16">
+        <v>28.81794720186</v>
+      </c>
+      <c r="S16">
+        <v>0.1261069246213213</v>
+      </c>
+      <c r="T16">
+        <v>0.1261069246213213</v>
       </c>
     </row>
   </sheetData>
